--- a/Excel-worksheets/Lecture07_CNN.xlsx
+++ b/Excel-worksheets/Lecture07_CNN.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overview" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,10 +20,237 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+  <si>
+    <t>CNN Forward Propagation with Zero Padding</t>
+  </si>
+  <si>
+    <t>RGB(0-255) → Normalize → Standardize → ZeroPad → Conv2D → ReLU → MaxPool → FC → Sigmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6×6×3   →   6×6×3  →   6×6×3   →  8×8×3  →   6×6  →  6×6  →   3×3   →  1  →    1</t>
+  </si>
+  <si>
+    <t>Zero Padding (p=1): Input preserved! 6×6 → 6×6</t>
+  </si>
+  <si>
+    <t>Kernels</t>
+  </si>
+  <si>
+    <t>K_R</t>
+  </si>
+  <si>
+    <t>K_G</t>
+  </si>
+  <si>
+    <t>K_B</t>
+  </si>
+  <si>
+    <t>bias = 0.0</t>
+  </si>
+  <si>
+    <t>Standardization (Z-score normalization) is critical for neural network training:</t>
+  </si>
+  <si>
+    <t>1. Improves Training Stability:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Ensures all input features have similar scales (mean=0, std=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Prevents features with large values from dominating the learning process</t>
+  </si>
+  <si>
+    <t>2. Prevents Gradient Vanishing/Exploding:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Large input values can cause very large or very small gradients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Standardization keeps gradients in a reasonable range</t>
+  </si>
+  <si>
+    <t>3. Faster Convergence:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Optimizers (like SGD, Adam) work better with standardized inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Learning rate can be set more easily and consistently</t>
+  </si>
+  <si>
+    <t>4. Better Weight Initialization:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Standard initialization techniques (Xavier, He) assume normalized inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Helps weights start in an optimal range</t>
+  </si>
+  <si>
+    <t>Formula: z = (x - mean) / std</t>
+  </si>
+  <si>
+    <t>Result: Transformed data has mean ≈ 0 and standard deviation ≈ 1</t>
+  </si>
+  <si>
+    <t>Preprocessing: Original(0-255) → Normalized(0-1) → Standardized</t>
+  </si>
+  <si>
+    <t>R Channel</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>→ ÷255 →</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>→ (x-0.485)/0.229 →</t>
+  </si>
+  <si>
+    <t>Standardized</t>
+  </si>
+  <si>
+    <t>G Channel</t>
+  </si>
+  <si>
+    <t>→ (x-0.456)/0.224 →</t>
+  </si>
+  <si>
+    <t>B Channel</t>
+  </si>
+  <si>
+    <t>→ (x-0.406)/0.225 →</t>
+  </si>
+  <si>
+    <t>Convolution: Input(6×6) → ZeroPad(8×8) → Conv(6×6)</t>
+  </si>
+  <si>
+    <t>INPUT (Standardized 6×6)</t>
+  </si>
+  <si>
+    <t>R_std</t>
+  </si>
+  <si>
+    <t>G_std</t>
+  </si>
+  <si>
+    <t>B_std</t>
+  </si>
+  <si>
+    <t>ZERO PADDED (8×8, padding=1)</t>
+  </si>
+  <si>
+    <t>R_padded</t>
+  </si>
+  <si>
+    <t>G_padded</t>
+  </si>
+  <si>
+    <t>B_padded</t>
+  </si>
+  <si>
+    <t>(Gray = padding zeros)</t>
+  </si>
+  <si>
+    <t>KERNELS</t>
+  </si>
+  <si>
+    <t>CONVOLUTION RESULTS (each channel)</t>
+  </si>
+  <si>
+    <t>Formula: Conv = R_sum + G_sum + B_sum + bias</t>
+  </si>
+  <si>
+    <t>R_sum (6×6)</t>
+  </si>
+  <si>
+    <t>G_sum (6×6)</t>
+  </si>
+  <si>
+    <t>B_sum (6×6)</t>
+  </si>
+  <si>
+    <t>OUTPUT: R_sum + G_sum + B_sum + bias = Conv (6×6)</t>
+  </si>
+  <si>
+    <t>Example: Conv(0,0)</t>
+  </si>
+  <si>
+    <t>ReLU: Conv (6×6) → ReLU (6×6)</t>
+  </si>
+  <si>
+    <t>INPUT (Conv Output)</t>
+  </si>
+  <si>
+    <t>ReLU(x) = max(0, x)</t>
+  </si>
+  <si>
+    <t>Red = negative → 0</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>OUTPUT (ReLU)</t>
+  </si>
+  <si>
+    <t>MaxPool: ReLU (6×6) → Pool (3×3)</t>
+  </si>
+  <si>
+    <t>INPUT (ReLU Output)</t>
+  </si>
+  <si>
+    <t>Pool: 2×2, Stride: 2</t>
+  </si>
+  <si>
+    <t>OUTPUT (Pool 3×3)</t>
+  </si>
+  <si>
+    <t>FC: Pool (3×3) → Flatten (9) → FC → Sigmoid → Loss</t>
+  </si>
+  <si>
+    <t>INPUT (Pool)</t>
+  </si>
+  <si>
+    <t>→ Flatten →</t>
+  </si>
+  <si>
+    <t>Vector (9)</t>
+  </si>
+  <si>
+    <t>z = Σ(w×x) + b = 4.2656</t>
+  </si>
+  <si>
+    <t>y = σ(z) = 0.9862</t>
+  </si>
+  <si>
+    <t>Loss = 0.0139</t>
+  </si>
+  <si>
+    <t>Conv (6×6):</t>
+  </si>
+  <si>
+    <t>ReLU (6×6):</t>
+  </si>
+  <si>
+    <t>Pool (3×3):</t>
+  </si>
+  <si>
+    <t>z=4.2656, y=0.9862, Loss=0.0139</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +260,11 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="19">
@@ -158,6 +390,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -189,157 +422,90 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="28">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="10" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -632,98 +798,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:V15"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col customWidth="1" max="1" min="1" width="80"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="6"/>
+    <col customWidth="1" max="4" min="4" width="6"/>
+    <col customWidth="1" max="5" min="5" width="6"/>
+    <col customWidth="1" max="6" min="6" width="6"/>
+    <col customWidth="1" max="7" min="7" width="6"/>
+    <col customWidth="1" max="8" min="8" width="6"/>
+    <col customWidth="1" max="9" min="9" width="6"/>
+    <col customWidth="1" max="10" min="10" width="6"/>
+    <col customWidth="1" max="11" min="11" width="6"/>
+    <col customWidth="1" max="12" min="12" width="6"/>
+    <col customWidth="1" max="13" min="13" width="6"/>
+    <col customWidth="1" max="14" min="14" width="6"/>
+    <col customWidth="1" max="15" min="15" width="6"/>
+    <col customWidth="1" max="16" min="16" width="6"/>
+    <col customWidth="1" max="17" min="17" width="6"/>
+    <col customWidth="1" max="18" min="18" width="6"/>
+    <col customWidth="1" max="19" min="19" width="6"/>
+    <col customWidth="1" max="20" min="20" width="6"/>
+    <col customWidth="1" max="21" min="21" width="6"/>
+    <col customWidth="1" max="22" min="22" width="6"/>
+    <col customWidth="1" max="23" min="23" width="6"/>
+    <col customWidth="1" max="24" min="24" width="6"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CNN Forward Propagation with Zero Padding</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>RGB(0-255) → Normalize → Standardize → ZeroPad → Conv2D → ReLU → MaxPool → FC → Sigmoid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  6×6×3   →   6×6×3  →   6×6×3   →  8×8×3  →   6×6  →  6×6  →   3×3   →  1  →    1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Zero Padding (p=1): Input preserved! 6×6 → 6×6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Kernels</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>K_R</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>K_G</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="inlineStr">
-        <is>
-          <t>K_B</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>bias = 0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+    <row r="1" spans="1:17"/>
+    <row r="2" spans="1:17">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17"/>
+    <row r="4" spans="1:17">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
@@ -752,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17">
       <c r="B14" s="8" t="n">
         <v>2</v>
       </c>
@@ -781,7 +931,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17">
       <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
@@ -808,6 +958,87 @@
       </c>
       <c r="N15" s="10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="27">
+        <f>== Why Standardization is Needed ===</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +1048,7 @@
     <mergeCell ref="B5:V5"/>
     <mergeCell ref="B2:V2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -833,83 +1064,69 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col customWidth="1" max="1" min="1" width="6"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="6"/>
+    <col customWidth="1" max="4" min="4" width="6"/>
+    <col customWidth="1" max="5" min="5" width="6"/>
+    <col customWidth="1" max="6" min="6" width="6"/>
+    <col customWidth="1" max="7" min="7" width="6"/>
+    <col customWidth="1" max="8" min="8" width="6"/>
+    <col customWidth="1" max="9" min="9" width="6"/>
+    <col customWidth="1" max="10" min="10" width="6"/>
+    <col customWidth="1" max="11" min="11" width="6"/>
+    <col customWidth="1" max="12" min="12" width="6"/>
+    <col customWidth="1" max="13" min="13" width="6"/>
+    <col customWidth="1" max="14" min="14" width="6"/>
+    <col customWidth="1" max="15" min="15" width="6"/>
+    <col customWidth="1" max="16" min="16" width="6"/>
+    <col customWidth="1" max="17" min="17" width="6"/>
+    <col customWidth="1" max="18" min="18" width="6"/>
+    <col customWidth="1" max="19" min="19" width="6"/>
+    <col customWidth="1" max="20" min="20" width="6"/>
+    <col customWidth="1" max="21" min="21" width="6"/>
+    <col customWidth="1" max="22" min="22" width="6"/>
+    <col customWidth="1" max="23" min="23" width="6"/>
+    <col customWidth="1" max="24" min="24" width="6"/>
+    <col customWidth="1" max="25" min="25" width="6"/>
+    <col customWidth="1" max="26" min="26" width="6"/>
+    <col customWidth="1" max="27" min="27" width="6"/>
+    <col customWidth="1" max="28" min="28" width="6"/>
+    <col customWidth="1" max="29" min="29" width="6"/>
+    <col customWidth="1" max="30" min="30" width="6"/>
+    <col customWidth="1" max="31" min="31" width="6"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>Preprocessing: Original(0-255) → Normalized(0-1) → Standardized</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>R Channel</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>→ ÷255 →</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>Normalized</t>
-        </is>
-      </c>
-      <c r="R7" s="1" t="inlineStr">
-        <is>
-          <t>→ (x-0.485)/0.229 →</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>Standardized</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+    <row r="2" spans="1:28">
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="B8" s="8" t="n">
         <v>255</v>
       </c>
@@ -965,7 +1182,7 @@
         <v>-1.69</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28">
       <c r="B9" s="8" t="n">
         <v>230</v>
       </c>
@@ -1021,7 +1238,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28">
       <c r="B10" s="8" t="n">
         <v>210</v>
       </c>
@@ -1077,7 +1294,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28">
       <c r="B11" s="8" t="n">
         <v>190</v>
       </c>
@@ -1133,7 +1350,7 @@
         <v>-1.95</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28">
       <c r="B12" s="8" t="n">
         <v>170</v>
       </c>
@@ -1189,7 +1406,7 @@
         <v>-2.03</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28">
       <c r="B13" s="8" t="n">
         <v>150</v>
       </c>
@@ -1245,41 +1462,29 @@
         <v>-2.12</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>G Channel</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>→ ÷255 →</t>
-        </is>
-      </c>
-      <c r="K18" s="6" t="inlineStr">
-        <is>
-          <t>Normalized</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="inlineStr">
-        <is>
-          <t>→ (x-0.456)/0.224 →</t>
-        </is>
-      </c>
-      <c r="W18" s="6" t="inlineStr">
-        <is>
-          <t>Standardized</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+    <row r="16" spans="1:28">
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="B19" s="9" t="n">
         <v>100</v>
       </c>
@@ -1335,7 +1540,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:28">
       <c r="B20" s="9" t="n">
         <v>90</v>
       </c>
@@ -1391,7 +1596,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:28">
       <c r="B21" s="9" t="n">
         <v>80</v>
       </c>
@@ -1447,7 +1652,7 @@
         <v>1.12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:28">
       <c r="B22" s="9" t="n">
         <v>70</v>
       </c>
@@ -1503,7 +1708,7 @@
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:28">
       <c r="B23" s="9" t="n">
         <v>60</v>
       </c>
@@ -1559,7 +1764,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:28">
       <c r="B24" s="9" t="n">
         <v>50</v>
       </c>
@@ -1615,41 +1820,29 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>B Channel</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t>→ ÷255 →</t>
-        </is>
-      </c>
-      <c r="K29" s="7" t="inlineStr">
-        <is>
-          <t>Normalized</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="inlineStr">
-        <is>
-          <t>→ (x-0.406)/0.225 →</t>
-        </is>
-      </c>
-      <c r="W29" s="7" t="inlineStr">
-        <is>
-          <t>Standardized</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+    <row r="27" spans="1:28">
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="B29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="B30" s="10" t="n">
         <v>50</v>
       </c>
@@ -1705,7 +1898,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:28">
       <c r="B31" s="10" t="n">
         <v>60</v>
       </c>
@@ -1761,7 +1954,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:28">
       <c r="B32" s="10" t="n">
         <v>70</v>
       </c>
@@ -1817,7 +2010,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:28">
       <c r="B33" s="10" t="n">
         <v>80</v>
       </c>
@@ -1873,7 +2066,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:28">
       <c r="B34" s="10" t="n">
         <v>90</v>
       </c>
@@ -1929,7 +2122,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:28">
       <c r="B35" s="10" t="n">
         <v>100</v>
       </c>
@@ -1989,7 +2182,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:Z2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2005,73 +2198,63 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
-    <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="5" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
-    <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
-    <col width="5" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
-    <col width="5" customWidth="1" min="27" max="27"/>
-    <col width="5" customWidth="1" min="28" max="28"/>
-    <col width="5" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col customWidth="1" max="1" min="1" width="5"/>
+    <col customWidth="1" max="2" min="2" width="5"/>
+    <col customWidth="1" max="3" min="3" width="5"/>
+    <col customWidth="1" max="4" min="4" width="5"/>
+    <col customWidth="1" max="5" min="5" width="5"/>
+    <col customWidth="1" max="6" min="6" width="5"/>
+    <col customWidth="1" max="7" min="7" width="5"/>
+    <col customWidth="1" max="8" min="8" width="5"/>
+    <col customWidth="1" max="9" min="9" width="5"/>
+    <col customWidth="1" max="10" min="10" width="5"/>
+    <col customWidth="1" max="11" min="11" width="5"/>
+    <col customWidth="1" max="12" min="12" width="5"/>
+    <col customWidth="1" max="13" min="13" width="5"/>
+    <col customWidth="1" max="14" min="14" width="5"/>
+    <col customWidth="1" max="15" min="15" width="5"/>
+    <col customWidth="1" max="16" min="16" width="5"/>
+    <col customWidth="1" max="17" min="17" width="5"/>
+    <col customWidth="1" max="18" min="18" width="5"/>
+    <col customWidth="1" max="19" min="19" width="5"/>
+    <col customWidth="1" max="20" min="20" width="5"/>
+    <col customWidth="1" max="21" min="21" width="5"/>
+    <col customWidth="1" max="22" min="22" width="5"/>
+    <col customWidth="1" max="23" min="23" width="5"/>
+    <col customWidth="1" max="24" min="24" width="5"/>
+    <col customWidth="1" max="25" min="25" width="5"/>
+    <col customWidth="1" max="26" min="26" width="5"/>
+    <col customWidth="1" max="27" min="27" width="5"/>
+    <col customWidth="1" max="28" min="28" width="5"/>
+    <col customWidth="1" max="29" min="29" width="5"/>
+    <col customWidth="1" max="30" min="30" width="5"/>
+    <col customWidth="1" max="31" min="31" width="5"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Convolution: Input(6×6) → ZeroPad(8×8) → Conv(6×6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>INPUT (Standardized 6×6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>R_std</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr">
-        <is>
-          <t>G_std</t>
-        </is>
-      </c>
-      <c r="R6" s="7" t="inlineStr">
-        <is>
-          <t>B_std</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+    <row r="2" spans="1:29">
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="B7" s="8" t="n">
         <v>2.25</v>
       </c>
@@ -2127,7 +2310,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29">
       <c r="B8" s="8" t="n">
         <v>1.82</v>
       </c>
@@ -2183,7 +2366,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29">
       <c r="B9" s="8" t="n">
         <v>1.48</v>
       </c>
@@ -2239,7 +2422,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29">
       <c r="B10" s="8" t="n">
         <v>1.14</v>
       </c>
@@ -2295,7 +2478,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:29">
       <c r="B11" s="8" t="n">
         <v>0.79</v>
       </c>
@@ -2351,7 +2534,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:29">
       <c r="B12" s="8" t="n">
         <v>0.45</v>
       </c>
@@ -2407,55 +2590,23 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>ZERO PADDED (8×8, padding=1)</t>
-        </is>
-      </c>
-      <c r="C15" s="12" t="n"/>
-      <c r="D15" s="12" t="n"/>
-      <c r="E15" s="12" t="n"/>
-      <c r="F15" s="12" t="n"/>
-      <c r="G15" s="12" t="n"/>
-      <c r="H15" s="12" t="n"/>
-      <c r="I15" s="12" t="n"/>
-      <c r="J15" s="12" t="n"/>
-      <c r="K15" s="12" t="n"/>
-      <c r="L15" s="12" t="n"/>
-      <c r="M15" s="12" t="n"/>
-      <c r="N15" s="12" t="n"/>
-      <c r="O15" s="12" t="n"/>
-      <c r="P15" s="12" t="n"/>
-      <c r="Q15" s="12" t="n"/>
-      <c r="R15" s="12" t="n"/>
-      <c r="S15" s="12" t="n"/>
-      <c r="T15" s="12" t="n"/>
-      <c r="U15" s="12" t="n"/>
-      <c r="V15" s="12" t="n"/>
-      <c r="W15" s="12" t="n"/>
-      <c r="X15" s="12" t="n"/>
-      <c r="Y15" s="12" t="n"/>
-      <c r="Z15" s="13" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>R_padded</t>
-        </is>
-      </c>
-      <c r="L17" s="6" t="inlineStr">
-        <is>
-          <t>G_padded</t>
-        </is>
-      </c>
-      <c r="V17" s="7" t="inlineStr">
-        <is>
-          <t>B_padded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+    <row r="15" spans="1:29">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="B18" s="14" t="n">
         <v>0</v>
       </c>
@@ -2529,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:29">
       <c r="B19" s="14" t="n">
         <v>0</v>
       </c>
@@ -2603,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:29">
       <c r="B20" s="14" t="n">
         <v>0</v>
       </c>
@@ -2677,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:29">
       <c r="B21" s="14" t="n">
         <v>0</v>
       </c>
@@ -2751,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:29">
       <c r="B22" s="14" t="n">
         <v>0</v>
       </c>
@@ -2825,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:29">
       <c r="B23" s="14" t="n">
         <v>0</v>
       </c>
@@ -2899,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:29">
       <c r="B24" s="14" t="n">
         <v>0</v>
       </c>
@@ -2973,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:29">
       <c r="B25" s="14" t="n">
         <v>0</v>
       </c>
@@ -3047,38 +3198,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="14" t="inlineStr">
-        <is>
-          <t>(Gray = padding zeros)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>KERNELS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>K_R</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr">
-        <is>
-          <t>K_G</t>
-        </is>
-      </c>
-      <c r="L32" s="7" t="inlineStr">
-        <is>
-          <t>K_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+    <row r="27" spans="1:29">
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="B33" s="8" t="n">
         <v>1</v>
       </c>
@@ -3106,13 +3247,11 @@
       <c r="N33" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>bias = 0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="Q33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="B34" s="8" t="n">
         <v>2</v>
       </c>
@@ -3141,7 +3280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:29">
       <c r="B35" s="8" t="n">
         <v>1</v>
       </c>
@@ -3170,62 +3309,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>CONVOLUTION RESULTS (each channel)</t>
-        </is>
-      </c>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="12" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="12" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="12" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="12" t="n"/>
-      <c r="K38" s="12" t="n"/>
-      <c r="L38" s="12" t="n"/>
-      <c r="M38" s="12" t="n"/>
-      <c r="N38" s="12" t="n"/>
-      <c r="O38" s="12" t="n"/>
-      <c r="P38" s="12" t="n"/>
-      <c r="Q38" s="12" t="n"/>
-      <c r="R38" s="12" t="n"/>
-      <c r="S38" s="12" t="n"/>
-      <c r="T38" s="12" t="n"/>
-      <c r="U38" s="12" t="n"/>
-      <c r="V38" s="12" t="n"/>
-      <c r="W38" s="12" t="n"/>
-      <c r="X38" s="12" t="n"/>
-      <c r="Y38" s="12" t="n"/>
-      <c r="Z38" s="13" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>Formula: Conv = R_sum + G_sum + B_sum + bias</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>R_sum (6×6)</t>
-        </is>
-      </c>
-      <c r="J41" s="6" t="inlineStr">
-        <is>
-          <t>G_sum (6×6)</t>
-        </is>
-      </c>
-      <c r="R41" s="7" t="inlineStr">
-        <is>
-          <t>B_sum (6×6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+    <row r="38" spans="1:29">
+      <c r="B38" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="B41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="B42" s="8" t="n">
         <v>-3.58</v>
       </c>
@@ -3281,7 +3386,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:29">
       <c r="B43" s="8" t="n">
         <v>-3.86</v>
       </c>
@@ -3322,7 +3427,7 @@
         <v>-1.19</v>
       </c>
       <c r="S43" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T43" s="10" t="n">
         <v>0</v>
@@ -3337,7 +3442,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:29">
       <c r="B44" s="8" t="n">
         <v>-2.49</v>
       </c>
@@ -3381,19 +3486,19 @@
         <v>0</v>
       </c>
       <c r="T44" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U44" s="10" t="n">
         <v>0</v>
       </c>
       <c r="V44" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W44" s="10" t="n">
         <v>2.03</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:29">
       <c r="B45" s="8" t="n">
         <v>-1.12</v>
       </c>
@@ -3434,13 +3539,13 @@
         <v>-0.85</v>
       </c>
       <c r="S45" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T45" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U45" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V45" s="10" t="n">
         <v>0</v>
@@ -3449,7 +3554,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:29">
       <c r="B46" s="8" t="n">
         <v>0.25</v>
       </c>
@@ -3490,7 +3595,7 @@
         <v>-0.67</v>
       </c>
       <c r="S46" s="10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T46" s="10" t="n">
         <v>0</v>
@@ -3505,7 +3610,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:29">
       <c r="B47" s="8" t="n">
         <v>0.87</v>
       </c>
@@ -3561,26 +3666,12 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>OUTPUT: R_sum + G_sum + B_sum + bias = Conv (6×6)</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="12" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="12" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="12" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="12" t="n"/>
-      <c r="K50" s="12" t="n"/>
-      <c r="L50" s="12" t="n"/>
-      <c r="M50" s="12" t="n"/>
-      <c r="N50" s="13" t="n"/>
-    </row>
-    <row r="51">
+    <row r="50" spans="1:29">
+      <c r="B50" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="B51" s="15" t="n">
         <v>-5.02</v>
       </c>
@@ -3599,13 +3690,11 @@
       <c r="G51" s="15" t="n">
         <v>-4.73</v>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>Example: Conv(0,0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
+      <c r="J51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="B52" s="15" t="n">
         <v>-4</v>
       </c>
@@ -3629,7 +3718,7 @@
         <v/>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:29">
       <c r="B53" s="15" t="n">
         <v>-2.46</v>
       </c>
@@ -3653,7 +3742,7 @@
         <v/>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:29">
       <c r="B54" s="15" t="n">
         <v>-0.91</v>
       </c>
@@ -3673,7 +3762,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:29">
       <c r="B55" s="15" t="n">
         <v>0.63</v>
       </c>
@@ -3693,7 +3782,7 @@
         <v>-3.33</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:29">
       <c r="B56" s="15" t="n">
         <v>-2.12</v>
       </c>
@@ -3720,7 +3809,7 @@
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B15:Z15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3730,53 +3819,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="7"/>
+    <col customWidth="1" max="3" min="3" width="7"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="7"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="7" min="7" width="7"/>
+    <col customWidth="1" max="8" min="8" width="7"/>
+    <col customWidth="1" max="9" min="9" width="7"/>
+    <col customWidth="1" max="10" min="10" width="7"/>
+    <col customWidth="1" max="11" min="11" width="7"/>
+    <col customWidth="1" max="12" min="12" width="7"/>
+    <col customWidth="1" max="13" min="13" width="7"/>
+    <col customWidth="1" max="14" min="14" width="7"/>
+    <col customWidth="1" max="15" min="15" width="7"/>
+    <col customWidth="1" max="16" min="16" width="7"/>
+    <col customWidth="1" max="17" min="17" width="7"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="16" t="inlineStr">
-        <is>
-          <t>ReLU: Conv (6×6) → ReLU (6×6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>INPUT (Conv Output)</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>ReLU(x) = max(0, x)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+    <row r="2" spans="1:10">
+      <c r="B2" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="8" t="n">
         <v>-5.02</v>
       </c>
@@ -3795,13 +3878,11 @@
       <c r="G5" s="8" t="n">
         <v>-4.73</v>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Red = negative → 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="8" t="n">
         <v>-4</v>
       </c>
@@ -3821,7 +3902,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="B7" s="8" t="n">
         <v>-2.46</v>
       </c>
@@ -3841,7 +3922,7 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10">
       <c r="B8" s="8" t="n">
         <v>-0.91</v>
       </c>
@@ -3861,7 +3942,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10">
       <c r="B9" s="15" t="n">
         <v>0.63</v>
       </c>
@@ -3881,7 +3962,7 @@
         <v>-3.33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10">
       <c r="B10" s="8" t="n">
         <v>-2.12</v>
       </c>
@@ -3901,21 +3982,17 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="16" t="inlineStr">
-        <is>
-          <t>OUTPUT (ReLU)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="17" t="n">
         <v>0</v>
       </c>
@@ -3935,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10">
       <c r="B17" s="17" t="n">
         <v>0</v>
       </c>
@@ -3955,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10">
       <c r="B18" s="17" t="n">
         <v>0</v>
       </c>
@@ -3975,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10">
       <c r="B19" s="17" t="n">
         <v>0</v>
       </c>
@@ -3995,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10">
       <c r="B20" s="18" t="n">
         <v>0.63</v>
       </c>
@@ -4015,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10">
       <c r="B21" s="17" t="n">
         <v>0</v>
       </c>
@@ -4039,7 +4116,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:P2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4049,53 +4126,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P18"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="7"/>
+    <col customWidth="1" max="3" min="3" width="7"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="7"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="7" min="7" width="7"/>
+    <col customWidth="1" max="8" min="8" width="7"/>
+    <col customWidth="1" max="9" min="9" width="7"/>
+    <col customWidth="1" max="10" min="10" width="7"/>
+    <col customWidth="1" max="11" min="11" width="7"/>
+    <col customWidth="1" max="12" min="12" width="7"/>
+    <col customWidth="1" max="13" min="13" width="7"/>
+    <col customWidth="1" max="14" min="14" width="7"/>
+    <col customWidth="1" max="15" min="15" width="7"/>
+    <col customWidth="1" max="16" min="16" width="7"/>
+    <col customWidth="1" max="17" min="17" width="7"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="16" t="inlineStr">
-        <is>
-          <t>MaxPool: ReLU (6×6) → Pool (3×3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="16" t="inlineStr">
-        <is>
-          <t>INPUT (ReLU Output)</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Pool: 2×2, Stride: 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+    <row r="2" spans="1:10">
+      <c r="B2" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="18" t="n">
         <v>0</v>
       </c>
@@ -4115,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="B6" s="18" t="n">
         <v>0</v>
       </c>
@@ -4135,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="B7" s="21" t="n">
         <v>0</v>
       </c>
@@ -4155,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10">
       <c r="B8" s="21" t="n">
         <v>0</v>
       </c>
@@ -4175,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10">
       <c r="B9" s="24" t="n">
         <v>0.63</v>
       </c>
@@ -4195,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10">
       <c r="B10" s="24" t="n">
         <v>0</v>
       </c>
@@ -4215,21 +4286,17 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>↓</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="11" t="inlineStr">
-        <is>
-          <t>OUTPUT (Pool 3×3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="18" t="n">
         <v>8.16</v>
       </c>
@@ -4240,7 +4307,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10">
       <c r="B17" s="21" t="n">
         <v>7.74</v>
       </c>
@@ -4251,7 +4318,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10">
       <c r="B18" s="24" t="n">
         <v>7.57</v>
       </c>
@@ -4266,7 +4333,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:P2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4276,58 +4343,50 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R11"/>
+  <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="7"/>
+    <col customWidth="1" max="3" min="3" width="7"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="7"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="7" min="7" width="7"/>
+    <col customWidth="1" max="8" min="8" width="7"/>
+    <col customWidth="1" max="9" min="9" width="7"/>
+    <col customWidth="1" max="10" min="10" width="7"/>
+    <col customWidth="1" max="11" min="11" width="7"/>
+    <col customWidth="1" max="12" min="12" width="7"/>
+    <col customWidth="1" max="13" min="13" width="7"/>
+    <col customWidth="1" max="14" min="14" width="7"/>
+    <col customWidth="1" max="15" min="15" width="7"/>
+    <col customWidth="1" max="16" min="16" width="7"/>
+    <col customWidth="1" max="17" min="17" width="7"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>FC: Pool (3×3) → Flatten (9) → FC → Sigmoid → Loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="16" t="inlineStr">
-        <is>
-          <t>INPUT (Pool)</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>→ Flatten →</t>
-        </is>
-      </c>
-      <c r="J4" s="11" t="inlineStr">
-        <is>
-          <t>Vector (9)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+    <row r="2" spans="1:14">
+      <c r="B2" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" s="18" t="n">
         <v>8.16</v>
       </c>
@@ -4353,7 +4412,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14">
       <c r="B6" s="18" t="n">
         <v>7.74</v>
       </c>
@@ -4376,7 +4435,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="B7" s="18" t="n">
         <v>7.57</v>
       </c>
@@ -4387,32 +4446,26 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>z = Σ(w×x) + b = 4.2656</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="inlineStr">
-        <is>
-          <t>y = σ(z) = 0.9862</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>Loss = 0.0139</t>
-        </is>
+    <row r="9" spans="1:14">
+      <c r="B9" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:R2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4428,35 +4481,33 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="7"/>
+    <col customWidth="1" max="3" min="3" width="7"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="7"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="7" min="7" width="7"/>
+    <col customWidth="1" max="8" min="8" width="7"/>
+    <col customWidth="1" max="9" min="9" width="7"/>
+    <col customWidth="1" max="10" min="10" width="7"/>
+    <col customWidth="1" max="11" min="11" width="7"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="B2" s="1">
         <f>== Answer Key ===</f>
         <v/>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Conv (6×6):</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+    <row r="4" spans="1:7">
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="15" t="n">
         <v>-5.02</v>
       </c>
@@ -4476,7 +4527,7 @@
         <v>-4.73</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="B6" s="15" t="n">
         <v>-4</v>
       </c>
@@ -4496,7 +4547,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="B7" s="15" t="n">
         <v>-2.46</v>
       </c>
@@ -4516,7 +4567,7 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="B8" s="15" t="n">
         <v>-0.91</v>
       </c>
@@ -4536,7 +4587,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="B9" s="15" t="n">
         <v>0.63</v>
       </c>
@@ -4556,7 +4607,7 @@
         <v>-3.33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="B10" s="15" t="n">
         <v>-2.12</v>
       </c>
@@ -4576,14 +4627,12 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>ReLU (6×6):</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="18" t="n">
         <v>0</v>
       </c>
@@ -4603,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="B14" s="18" t="n">
         <v>0</v>
       </c>
@@ -4623,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="B15" s="18" t="n">
         <v>0</v>
       </c>
@@ -4643,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="B16" s="18" t="n">
         <v>0</v>
       </c>
@@ -4663,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="B17" s="18" t="n">
         <v>0.63</v>
       </c>
@@ -4683,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="B18" s="18" t="n">
         <v>0</v>
       </c>
@@ -4703,14 +4752,12 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Pool (3×3):</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+    <row r="20" spans="1:7">
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" s="17" t="n">
         <v>8.16</v>
       </c>
@@ -4721,7 +4768,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7">
       <c r="B22" s="17" t="n">
         <v>7.74</v>
       </c>
@@ -4732,7 +4779,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="B23" s="17" t="n">
         <v>7.57</v>
       </c>
@@ -4743,14 +4790,12 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>z=4.2656, y=0.9862, Loss=0.0139</t>
-        </is>
+    <row r="25" spans="1:7">
+      <c r="B25" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Excel-worksheets/Lecture07_CNN.xlsx
+++ b/Excel-worksheets/Lecture07_CNN.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overview" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,244 +13,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReLU" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaxPool" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FC_Output" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Answer_Key" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Backward" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Answer_Key" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
-  <si>
-    <t>CNN Forward Propagation with Zero Padding</t>
-  </si>
-  <si>
-    <t>RGB(0-255) → Normalize → Standardize → ZeroPad → Conv2D → ReLU → MaxPool → FC → Sigmoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6×6×3   →   6×6×3  →   6×6×3   →  8×8×3  →   6×6  →  6×6  →   3×3   →  1  →    1</t>
-  </si>
-  <si>
-    <t>Zero Padding (p=1): Input preserved! 6×6 → 6×6</t>
-  </si>
-  <si>
-    <t>Kernels</t>
-  </si>
-  <si>
-    <t>K_R</t>
-  </si>
-  <si>
-    <t>K_G</t>
-  </si>
-  <si>
-    <t>K_B</t>
-  </si>
-  <si>
-    <t>bias = 0.0</t>
-  </si>
-  <si>
-    <t>Standardization (Z-score normalization) is critical for neural network training:</t>
-  </si>
-  <si>
-    <t>1. Improves Training Stability:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Ensures all input features have similar scales (mean=0, std=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Prevents features with large values from dominating the learning process</t>
-  </si>
-  <si>
-    <t>2. Prevents Gradient Vanishing/Exploding:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Large input values can cause very large or very small gradients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Standardization keeps gradients in a reasonable range</t>
-  </si>
-  <si>
-    <t>3. Faster Convergence:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Optimizers (like SGD, Adam) work better with standardized inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Learning rate can be set more easily and consistently</t>
-  </si>
-  <si>
-    <t>4. Better Weight Initialization:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Standard initialization techniques (Xavier, He) assume normalized inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Helps weights start in an optimal range</t>
-  </si>
-  <si>
-    <t>Formula: z = (x - mean) / std</t>
-  </si>
-  <si>
-    <t>Result: Transformed data has mean ≈ 0 and standard deviation ≈ 1</t>
-  </si>
-  <si>
-    <t>Preprocessing: Original(0-255) → Normalized(0-1) → Standardized</t>
-  </si>
-  <si>
-    <t>R Channel</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>→ ÷255 →</t>
-  </si>
-  <si>
-    <t>Normalized</t>
-  </si>
-  <si>
-    <t>→ (x-0.485)/0.229 →</t>
-  </si>
-  <si>
-    <t>Standardized</t>
-  </si>
-  <si>
-    <t>G Channel</t>
-  </si>
-  <si>
-    <t>→ (x-0.456)/0.224 →</t>
-  </si>
-  <si>
-    <t>B Channel</t>
-  </si>
-  <si>
-    <t>→ (x-0.406)/0.225 →</t>
-  </si>
-  <si>
-    <t>Convolution: Input(6×6) → ZeroPad(8×8) → Conv(6×6)</t>
-  </si>
-  <si>
-    <t>INPUT (Standardized 6×6)</t>
-  </si>
-  <si>
-    <t>R_std</t>
-  </si>
-  <si>
-    <t>G_std</t>
-  </si>
-  <si>
-    <t>B_std</t>
-  </si>
-  <si>
-    <t>ZERO PADDED (8×8, padding=1)</t>
-  </si>
-  <si>
-    <t>R_padded</t>
-  </si>
-  <si>
-    <t>G_padded</t>
-  </si>
-  <si>
-    <t>B_padded</t>
-  </si>
-  <si>
-    <t>(Gray = padding zeros)</t>
-  </si>
-  <si>
-    <t>KERNELS</t>
-  </si>
-  <si>
-    <t>CONVOLUTION RESULTS (each channel)</t>
-  </si>
-  <si>
-    <t>Formula: Conv = R_sum + G_sum + B_sum + bias</t>
-  </si>
-  <si>
-    <t>R_sum (6×6)</t>
-  </si>
-  <si>
-    <t>G_sum (6×6)</t>
-  </si>
-  <si>
-    <t>B_sum (6×6)</t>
-  </si>
-  <si>
-    <t>OUTPUT: R_sum + G_sum + B_sum + bias = Conv (6×6)</t>
-  </si>
-  <si>
-    <t>Example: Conv(0,0)</t>
-  </si>
-  <si>
-    <t>ReLU: Conv (6×6) → ReLU (6×6)</t>
-  </si>
-  <si>
-    <t>INPUT (Conv Output)</t>
-  </si>
-  <si>
-    <t>ReLU(x) = max(0, x)</t>
-  </si>
-  <si>
-    <t>Red = negative → 0</t>
-  </si>
-  <si>
-    <t>↓</t>
-  </si>
-  <si>
-    <t>OUTPUT (ReLU)</t>
-  </si>
-  <si>
-    <t>MaxPool: ReLU (6×6) → Pool (3×3)</t>
-  </si>
-  <si>
-    <t>INPUT (ReLU Output)</t>
-  </si>
-  <si>
-    <t>Pool: 2×2, Stride: 2</t>
-  </si>
-  <si>
-    <t>OUTPUT (Pool 3×3)</t>
-  </si>
-  <si>
-    <t>FC: Pool (3×3) → Flatten (9) → FC → Sigmoid → Loss</t>
-  </si>
-  <si>
-    <t>INPUT (Pool)</t>
-  </si>
-  <si>
-    <t>→ Flatten →</t>
-  </si>
-  <si>
-    <t>Vector (9)</t>
-  </si>
-  <si>
-    <t>z = Σ(w×x) + b = 4.2656</t>
-  </si>
-  <si>
-    <t>y = σ(z) = 0.9862</t>
-  </si>
-  <si>
-    <t>Loss = 0.0139</t>
-  </si>
-  <si>
-    <t>Conv (6×6):</t>
-  </si>
-  <si>
-    <t>ReLU (6×6):</t>
-  </si>
-  <si>
-    <t>Pool (3×3):</t>
-  </si>
-  <si>
-    <t>z=4.2656, y=0.9862, Loss=0.0139</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -266,8 +40,25 @@
       <color rgb="000000FF"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="000066CC"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00505050"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -376,6 +167,30 @@
         <bgColor rgb="00C4D4BF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -422,90 +237,167 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -798,82 +690,185 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="6"/>
-    <col customWidth="1" max="3" min="3" width="6"/>
-    <col customWidth="1" max="4" min="4" width="6"/>
-    <col customWidth="1" max="5" min="5" width="6"/>
-    <col customWidth="1" max="6" min="6" width="6"/>
-    <col customWidth="1" max="7" min="7" width="6"/>
-    <col customWidth="1" max="8" min="8" width="6"/>
-    <col customWidth="1" max="9" min="9" width="6"/>
-    <col customWidth="1" max="10" min="10" width="6"/>
-    <col customWidth="1" max="11" min="11" width="6"/>
-    <col customWidth="1" max="12" min="12" width="6"/>
-    <col customWidth="1" max="13" min="13" width="6"/>
-    <col customWidth="1" max="14" min="14" width="6"/>
-    <col customWidth="1" max="15" min="15" width="6"/>
-    <col customWidth="1" max="16" min="16" width="6"/>
-    <col customWidth="1" max="17" min="17" width="6"/>
-    <col customWidth="1" max="18" min="18" width="6"/>
-    <col customWidth="1" max="19" min="19" width="6"/>
-    <col customWidth="1" max="20" min="20" width="6"/>
-    <col customWidth="1" max="21" min="21" width="6"/>
-    <col customWidth="1" max="22" min="22" width="6"/>
-    <col customWidth="1" max="23" min="23" width="6"/>
-    <col customWidth="1" max="24" min="24" width="6"/>
+    <col width="80" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17"/>
-    <row r="2" spans="1:17">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17"/>
-    <row r="4" spans="1:17">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Convolutional Neural Network (CNN) - specialized architecture for image processing using local connectivity and weight sharing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CNN Forward Propagation with Zero Padding</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" s="12" t="n"/>
+      <c r="P2" s="12" t="n"/>
+      <c r="Q2" s="12" t="n"/>
+      <c r="R2" s="12" t="n"/>
+      <c r="S2" s="12" t="n"/>
+      <c r="T2" s="12" t="n"/>
+      <c r="U2" s="12" t="n"/>
+      <c r="V2" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>RGB(0-255) → Normalize → Standardize → ZeroPad → Conv2D → ReLU → MaxPool → FC → Sigmoid</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="n"/>
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="12" t="n"/>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="12" t="n"/>
+      <c r="H4" s="12" t="n"/>
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="12" t="n"/>
+      <c r="L4" s="12" t="n"/>
+      <c r="M4" s="12" t="n"/>
+      <c r="N4" s="12" t="n"/>
+      <c r="O4" s="12" t="n"/>
+      <c r="P4" s="12" t="n"/>
+      <c r="Q4" s="12" t="n"/>
+      <c r="R4" s="12" t="n"/>
+      <c r="S4" s="12" t="n"/>
+      <c r="T4" s="12" t="n"/>
+      <c r="U4" s="12" t="n"/>
+      <c r="V4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6×6×3   →   6×6×3  →   6×6×3   →  8×8×3  →   6×6  →  6×6  →   3×3   →  1  →    1</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="12" t="n"/>
+      <c r="J5" s="12" t="n"/>
+      <c r="K5" s="12" t="n"/>
+      <c r="L5" s="12" t="n"/>
+      <c r="M5" s="12" t="n"/>
+      <c r="N5" s="12" t="n"/>
+      <c r="O5" s="12" t="n"/>
+      <c r="P5" s="12" t="n"/>
+      <c r="Q5" s="12" t="n"/>
+      <c r="R5" s="12" t="n"/>
+      <c r="S5" s="12" t="n"/>
+      <c r="T5" s="12" t="n"/>
+      <c r="U5" s="12" t="n"/>
+      <c r="V5" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Zero Padding (p=1): Input preserved! 6×6 → 6×6</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="E7" s="12" t="n"/>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="12" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="I7" s="12" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="12" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="12" t="n"/>
+      <c r="N7" s="12" t="n"/>
+      <c r="O7" s="12" t="n"/>
+      <c r="P7" s="12" t="n"/>
+      <c r="Q7" s="12" t="n"/>
+      <c r="R7" s="12" t="n"/>
+      <c r="S7" s="12" t="n"/>
+      <c r="T7" s="12" t="n"/>
+      <c r="U7" s="12" t="n"/>
+      <c r="V7" s="13" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Kernels</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>K_R</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>K_G</t>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>K_B</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>bias = 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
@@ -902,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14">
       <c r="B14" s="8" t="n">
         <v>2</v>
       </c>
@@ -931,7 +926,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15">
       <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
@@ -960,95 +955,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20">
       <c r="A20" s="27">
         <f>== Why Standardization is Needed ===</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>23</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Standardization (Z-score normalization) is critical for neural network training:</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1. Improves Training Stability:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Ensures all input features have similar scales (mean=0, std=1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Prevents features with large values from dominating the learning process</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2. Prevents Gradient Vanishing/Exploding:</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Large input values can cause very large or very small gradients</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Standardization keeps gradients in a reasonable range</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3. Faster Convergence:</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Optimizers (like SGD, Adam) work better with standardized inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Learning rate can be set more easily and consistently</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4. Better Weight Initialization:</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Standard initialization techniques (Xavier, He) assume normalized inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Helps weights start in an optimal range</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Formula: z = (x - mean) / std</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Result: Transformed data has mean ≈ 0 and standard deviation ≈ 1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:V4"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:V2"/>
     <mergeCell ref="B7:V7"/>
     <mergeCell ref="B5:V5"/>
-    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B4:V4"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1058,75 +1084,120 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AB35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6"/>
-    <col customWidth="1" max="2" min="2" width="6"/>
-    <col customWidth="1" max="3" min="3" width="6"/>
-    <col customWidth="1" max="4" min="4" width="6"/>
-    <col customWidth="1" max="5" min="5" width="6"/>
-    <col customWidth="1" max="6" min="6" width="6"/>
-    <col customWidth="1" max="7" min="7" width="6"/>
-    <col customWidth="1" max="8" min="8" width="6"/>
-    <col customWidth="1" max="9" min="9" width="6"/>
-    <col customWidth="1" max="10" min="10" width="6"/>
-    <col customWidth="1" max="11" min="11" width="6"/>
-    <col customWidth="1" max="12" min="12" width="6"/>
-    <col customWidth="1" max="13" min="13" width="6"/>
-    <col customWidth="1" max="14" min="14" width="6"/>
-    <col customWidth="1" max="15" min="15" width="6"/>
-    <col customWidth="1" max="16" min="16" width="6"/>
-    <col customWidth="1" max="17" min="17" width="6"/>
-    <col customWidth="1" max="18" min="18" width="6"/>
-    <col customWidth="1" max="19" min="19" width="6"/>
-    <col customWidth="1" max="20" min="20" width="6"/>
-    <col customWidth="1" max="21" min="21" width="6"/>
-    <col customWidth="1" max="22" min="22" width="6"/>
-    <col customWidth="1" max="23" min="23" width="6"/>
-    <col customWidth="1" max="24" min="24" width="6"/>
-    <col customWidth="1" max="25" min="25" width="6"/>
-    <col customWidth="1" max="26" min="26" width="6"/>
-    <col customWidth="1" max="27" min="27" width="6"/>
-    <col customWidth="1" max="28" min="28" width="6"/>
-    <col customWidth="1" max="29" min="29" width="6"/>
-    <col customWidth="1" max="30" min="30" width="6"/>
-    <col customWidth="1" max="31" min="31" width="6"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28">
-      <c r="B2" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Image preprocessing: Normalize pixel values (0-255 to 0-1) and standardize using ImageNet statistics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Preprocessing: Original(0-255) → Normalized(0-1) → Standardized</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" s="12" t="n"/>
+      <c r="P2" s="12" t="n"/>
+      <c r="Q2" s="12" t="n"/>
+      <c r="R2" s="12" t="n"/>
+      <c r="S2" s="12" t="n"/>
+      <c r="T2" s="12" t="n"/>
+      <c r="U2" s="12" t="n"/>
+      <c r="V2" s="12" t="n"/>
+      <c r="W2" s="12" t="n"/>
+      <c r="X2" s="12" t="n"/>
+      <c r="Y2" s="12" t="n"/>
+      <c r="Z2" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>R Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>→ ÷255 →</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>→ (x-0.485)/0.229 →</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>Standardized</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="8" t="n">
         <v>255</v>
       </c>
@@ -1182,7 +1253,7 @@
         <v>-1.69</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9">
       <c r="B9" s="8" t="n">
         <v>230</v>
       </c>
@@ -1238,7 +1309,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10">
       <c r="B10" s="8" t="n">
         <v>210</v>
       </c>
@@ -1294,7 +1365,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11">
       <c r="B11" s="8" t="n">
         <v>190</v>
       </c>
@@ -1350,7 +1421,7 @@
         <v>-1.95</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12">
       <c r="B12" s="8" t="n">
         <v>170</v>
       </c>
@@ -1406,7 +1477,7 @@
         <v>-2.03</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13">
       <c r="B13" s="8" t="n">
         <v>150</v>
       </c>
@@ -1462,29 +1533,41 @@
         <v>-2.12</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+    <row r="16">
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>G Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>→ ÷255 →</t>
+        </is>
+      </c>
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
+        <is>
+          <t>→ (x-0.456)/0.224 →</t>
+        </is>
+      </c>
+      <c r="W18" s="6" t="inlineStr">
+        <is>
+          <t>Standardized</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="9" t="n">
         <v>100</v>
       </c>
@@ -1540,7 +1623,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20">
       <c r="B20" s="9" t="n">
         <v>90</v>
       </c>
@@ -1596,7 +1679,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21">
       <c r="B21" s="9" t="n">
         <v>80</v>
       </c>
@@ -1652,7 +1735,7 @@
         <v>1.12</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22">
       <c r="B22" s="9" t="n">
         <v>70</v>
       </c>
@@ -1708,7 +1791,7 @@
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23">
       <c r="B23" s="9" t="n">
         <v>60</v>
       </c>
@@ -1764,7 +1847,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24">
       <c r="B24" s="9" t="n">
         <v>50</v>
       </c>
@@ -1820,29 +1903,41 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="B27" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="B29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+    <row r="27">
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>B Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>→ ÷255 →</t>
+        </is>
+      </c>
+      <c r="K29" s="7" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+      <c r="R29" s="1" t="inlineStr">
+        <is>
+          <t>→ (x-0.406)/0.225 →</t>
+        </is>
+      </c>
+      <c r="W29" s="7" t="inlineStr">
+        <is>
+          <t>Standardized</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
       <c r="B30" s="10" t="n">
         <v>50</v>
       </c>
@@ -1898,7 +1993,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31">
       <c r="B31" s="10" t="n">
         <v>60</v>
       </c>
@@ -1954,7 +2049,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32">
       <c r="B32" s="10" t="n">
         <v>70</v>
       </c>
@@ -2010,7 +2105,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33">
       <c r="B33" s="10" t="n">
         <v>80</v>
       </c>
@@ -2066,7 +2161,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34">
       <c r="B34" s="10" t="n">
         <v>90</v>
       </c>
@@ -2122,7 +2217,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35">
       <c r="B35" s="10" t="n">
         <v>100</v>
       </c>
@@ -2179,10 +2274,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:Z2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2192,69 +2288,110 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AC56"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5"/>
-    <col customWidth="1" max="2" min="2" width="5"/>
-    <col customWidth="1" max="3" min="3" width="5"/>
-    <col customWidth="1" max="4" min="4" width="5"/>
-    <col customWidth="1" max="5" min="5" width="5"/>
-    <col customWidth="1" max="6" min="6" width="5"/>
-    <col customWidth="1" max="7" min="7" width="5"/>
-    <col customWidth="1" max="8" min="8" width="5"/>
-    <col customWidth="1" max="9" min="9" width="5"/>
-    <col customWidth="1" max="10" min="10" width="5"/>
-    <col customWidth="1" max="11" min="11" width="5"/>
-    <col customWidth="1" max="12" min="12" width="5"/>
-    <col customWidth="1" max="13" min="13" width="5"/>
-    <col customWidth="1" max="14" min="14" width="5"/>
-    <col customWidth="1" max="15" min="15" width="5"/>
-    <col customWidth="1" max="16" min="16" width="5"/>
-    <col customWidth="1" max="17" min="17" width="5"/>
-    <col customWidth="1" max="18" min="18" width="5"/>
-    <col customWidth="1" max="19" min="19" width="5"/>
-    <col customWidth="1" max="20" min="20" width="5"/>
-    <col customWidth="1" max="21" min="21" width="5"/>
-    <col customWidth="1" max="22" min="22" width="5"/>
-    <col customWidth="1" max="23" min="23" width="5"/>
-    <col customWidth="1" max="24" min="24" width="5"/>
-    <col customWidth="1" max="25" min="25" width="5"/>
-    <col customWidth="1" max="26" min="26" width="5"/>
-    <col customWidth="1" max="27" min="27" width="5"/>
-    <col customWidth="1" max="28" min="28" width="5"/>
-    <col customWidth="1" max="29" min="29" width="5"/>
-    <col customWidth="1" max="30" min="30" width="5"/>
-    <col customWidth="1" max="31" min="31" width="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29">
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Convolution extracts local features using learnable kernels. Output = sum of element-wise products over sliding window.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Convolution: Input(6×6) → ZeroPad(8×8) → Conv(6×6)</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" s="12" t="n"/>
+      <c r="P2" s="12" t="n"/>
+      <c r="Q2" s="12" t="n"/>
+      <c r="R2" s="12" t="n"/>
+      <c r="S2" s="12" t="n"/>
+      <c r="T2" s="12" t="n"/>
+      <c r="U2" s="12" t="n"/>
+      <c r="V2" s="12" t="n"/>
+      <c r="W2" s="12" t="n"/>
+      <c r="X2" s="12" t="n"/>
+      <c r="Y2" s="12" t="n"/>
+      <c r="Z2" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>INPUT (Standardized 6×6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>R_std</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>G_std</t>
+        </is>
+      </c>
+      <c r="R6" s="7" t="inlineStr">
+        <is>
+          <t>B_std</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="8" t="n">
         <v>2.25</v>
       </c>
@@ -2310,7 +2447,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8">
       <c r="B8" s="8" t="n">
         <v>1.82</v>
       </c>
@@ -2366,7 +2503,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9">
       <c r="B9" s="8" t="n">
         <v>1.48</v>
       </c>
@@ -2422,7 +2559,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10">
       <c r="B10" s="8" t="n">
         <v>1.14</v>
       </c>
@@ -2478,7 +2615,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11">
       <c r="B11" s="8" t="n">
         <v>0.79</v>
       </c>
@@ -2534,7 +2671,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12">
       <c r="B12" s="8" t="n">
         <v>0.45</v>
       </c>
@@ -2590,23 +2727,55 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+    <row r="15">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ZERO PADDED (8×8, padding=1)</t>
+        </is>
+      </c>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="12" t="n"/>
+      <c r="F15" s="12" t="n"/>
+      <c r="G15" s="12" t="n"/>
+      <c r="H15" s="12" t="n"/>
+      <c r="I15" s="12" t="n"/>
+      <c r="J15" s="12" t="n"/>
+      <c r="K15" s="12" t="n"/>
+      <c r="L15" s="12" t="n"/>
+      <c r="M15" s="12" t="n"/>
+      <c r="N15" s="12" t="n"/>
+      <c r="O15" s="12" t="n"/>
+      <c r="P15" s="12" t="n"/>
+      <c r="Q15" s="12" t="n"/>
+      <c r="R15" s="12" t="n"/>
+      <c r="S15" s="12" t="n"/>
+      <c r="T15" s="12" t="n"/>
+      <c r="U15" s="12" t="n"/>
+      <c r="V15" s="12" t="n"/>
+      <c r="W15" s="12" t="n"/>
+      <c r="X15" s="12" t="n"/>
+      <c r="Y15" s="12" t="n"/>
+      <c r="Z15" s="13" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>R_padded</t>
+        </is>
+      </c>
+      <c r="L17" s="6" t="inlineStr">
+        <is>
+          <t>G_padded</t>
+        </is>
+      </c>
+      <c r="V17" s="7" t="inlineStr">
+        <is>
+          <t>B_padded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="B18" s="14" t="n">
         <v>0</v>
       </c>
@@ -2680,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19">
       <c r="B19" s="14" t="n">
         <v>0</v>
       </c>
@@ -2754,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20">
       <c r="B20" s="14" t="n">
         <v>0</v>
       </c>
@@ -2828,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21">
       <c r="B21" s="14" t="n">
         <v>0</v>
       </c>
@@ -2902,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22">
       <c r="B22" s="14" t="n">
         <v>0</v>
       </c>
@@ -2976,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23">
       <c r="B23" s="14" t="n">
         <v>0</v>
       </c>
@@ -3050,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24">
       <c r="B24" s="14" t="n">
         <v>0</v>
       </c>
@@ -3124,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25">
       <c r="B25" s="14" t="n">
         <v>0</v>
       </c>
@@ -3198,28 +3367,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
-      <c r="B27" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+    <row r="27">
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>(Gray = padding zeros)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>KERNELS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>K_R</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>K_G</t>
+        </is>
+      </c>
+      <c r="L32" s="7" t="inlineStr">
+        <is>
+          <t>K_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
       <c r="B33" s="8" t="n">
         <v>1</v>
       </c>
@@ -3247,11 +3426,13 @@
       <c r="N33" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>bias = 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
       <c r="B34" s="8" t="n">
         <v>2</v>
       </c>
@@ -3280,7 +3461,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35">
       <c r="B35" s="8" t="n">
         <v>1</v>
       </c>
@@ -3309,28 +3490,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
-      <c r="B38" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
-      <c r="B39" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
-      <c r="B41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+    <row r="38">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>CONVOLUTION RESULTS (each channel)</t>
+        </is>
+      </c>
+      <c r="C38" s="12" t="n"/>
+      <c r="D38" s="12" t="n"/>
+      <c r="E38" s="12" t="n"/>
+      <c r="F38" s="12" t="n"/>
+      <c r="G38" s="12" t="n"/>
+      <c r="H38" s="12" t="n"/>
+      <c r="I38" s="12" t="n"/>
+      <c r="J38" s="12" t="n"/>
+      <c r="K38" s="12" t="n"/>
+      <c r="L38" s="12" t="n"/>
+      <c r="M38" s="12" t="n"/>
+      <c r="N38" s="12" t="n"/>
+      <c r="O38" s="12" t="n"/>
+      <c r="P38" s="12" t="n"/>
+      <c r="Q38" s="12" t="n"/>
+      <c r="R38" s="12" t="n"/>
+      <c r="S38" s="12" t="n"/>
+      <c r="T38" s="12" t="n"/>
+      <c r="U38" s="12" t="n"/>
+      <c r="V38" s="12" t="n"/>
+      <c r="W38" s="12" t="n"/>
+      <c r="X38" s="12" t="n"/>
+      <c r="Y38" s="12" t="n"/>
+      <c r="Z38" s="13" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Formula: Conv = R_sum + G_sum + B_sum + bias</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>R_sum (6×6)</t>
+        </is>
+      </c>
+      <c r="J41" s="6" t="inlineStr">
+        <is>
+          <t>G_sum (6×6)</t>
+        </is>
+      </c>
+      <c r="R41" s="7" t="inlineStr">
+        <is>
+          <t>B_sum (6×6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
       <c r="B42" s="8" t="n">
         <v>-3.58</v>
       </c>
@@ -3386,7 +3601,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43">
       <c r="B43" s="8" t="n">
         <v>-3.86</v>
       </c>
@@ -3442,7 +3657,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44">
       <c r="B44" s="8" t="n">
         <v>-2.49</v>
       </c>
@@ -3498,7 +3713,7 @@
         <v>2.03</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45">
       <c r="B45" s="8" t="n">
         <v>-1.12</v>
       </c>
@@ -3554,7 +3769,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46">
       <c r="B46" s="8" t="n">
         <v>0.25</v>
       </c>
@@ -3610,7 +3825,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47">
       <c r="B47" s="8" t="n">
         <v>0.87</v>
       </c>
@@ -3666,12 +3881,26 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
-      <c r="B50" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+    <row r="50">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>OUTPUT: R_sum + G_sum + B_sum + bias = Conv (6×6)</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="n"/>
+      <c r="D50" s="12" t="n"/>
+      <c r="E50" s="12" t="n"/>
+      <c r="F50" s="12" t="n"/>
+      <c r="G50" s="12" t="n"/>
+      <c r="H50" s="12" t="n"/>
+      <c r="I50" s="12" t="n"/>
+      <c r="J50" s="12" t="n"/>
+      <c r="K50" s="12" t="n"/>
+      <c r="L50" s="12" t="n"/>
+      <c r="M50" s="12" t="n"/>
+      <c r="N50" s="13" t="n"/>
+    </row>
+    <row r="51">
       <c r="B51" s="15" t="n">
         <v>-5.02</v>
       </c>
@@ -3690,11 +3919,13 @@
       <c r="G51" s="15" t="n">
         <v>-4.73</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>Example: Conv(0,0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
       <c r="B52" s="15" t="n">
         <v>-4</v>
       </c>
@@ -3718,7 +3949,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53">
       <c r="B53" s="15" t="n">
         <v>-2.46</v>
       </c>
@@ -3742,7 +3973,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54">
       <c r="B54" s="15" t="n">
         <v>-0.91</v>
       </c>
@@ -3762,7 +3993,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55">
       <c r="B55" s="15" t="n">
         <v>0.63</v>
       </c>
@@ -3782,7 +4013,7 @@
         <v>-3.33</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56">
       <c r="B56" s="15" t="n">
         <v>-2.12</v>
       </c>
@@ -3803,13 +4034,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B50:N50"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B38:Z38"/>
     <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B50:N50"/>
     <mergeCell ref="B15:Z15"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3819,47 +4051,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:J21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
-    <col customWidth="1" max="2" min="2" width="7"/>
-    <col customWidth="1" max="3" min="3" width="7"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="7"/>
-    <col customWidth="1" max="8" min="8" width="7"/>
-    <col customWidth="1" max="9" min="9" width="7"/>
-    <col customWidth="1" max="10" min="10" width="7"/>
-    <col customWidth="1" max="11" min="11" width="7"/>
-    <col customWidth="1" max="12" min="12" width="7"/>
-    <col customWidth="1" max="13" min="13" width="7"/>
-    <col customWidth="1" max="14" min="14" width="7"/>
-    <col customWidth="1" max="15" min="15" width="7"/>
-    <col customWidth="1" max="16" min="16" width="7"/>
-    <col customWidth="1" max="17" min="17" width="7"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="B2" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] ReLU activation: max(0, x). Introduces nonlinearity while avoiding vanishing gradient for positive values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="16" t="inlineStr">
+        <is>
+          <t>ReLU: Conv (6×6) → ReLU (6×6)</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" s="12" t="n"/>
+      <c r="P2" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>INPUT (Conv Output)</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>ReLU(x) = max(0, x)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="8" t="n">
         <v>-5.02</v>
       </c>
@@ -3878,11 +4137,13 @@
       <c r="G5" s="8" t="n">
         <v>-4.73</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Red = negative → 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" s="8" t="n">
         <v>-4</v>
       </c>
@@ -3902,7 +4163,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7">
       <c r="B7" s="8" t="n">
         <v>-2.46</v>
       </c>
@@ -3922,7 +4183,7 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="B8" s="8" t="n">
         <v>-0.91</v>
       </c>
@@ -3942,7 +4203,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9">
       <c r="B9" s="15" t="n">
         <v>0.63</v>
       </c>
@@ -3962,7 +4223,7 @@
         <v>-3.33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10">
       <c r="B10" s="8" t="n">
         <v>-2.12</v>
       </c>
@@ -3982,17 +4243,21 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    <row r="13">
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="inlineStr">
+        <is>
+          <t>OUTPUT (ReLU)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="17" t="n">
         <v>0</v>
       </c>
@@ -4012,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17">
       <c r="B17" s="17" t="n">
         <v>0</v>
       </c>
@@ -4032,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18">
       <c r="B18" s="17" t="n">
         <v>0</v>
       </c>
@@ -4052,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19">
       <c r="B19" s="17" t="n">
         <v>0</v>
       </c>
@@ -4072,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20">
       <c r="B20" s="18" t="n">
         <v>0.63</v>
       </c>
@@ -4092,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21">
       <c r="B21" s="17" t="n">
         <v>0</v>
       </c>
@@ -4113,10 +4378,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:P2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4126,47 +4392,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:J18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
-    <col customWidth="1" max="2" min="2" width="7"/>
-    <col customWidth="1" max="3" min="3" width="7"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="7"/>
-    <col customWidth="1" max="8" min="8" width="7"/>
-    <col customWidth="1" max="9" min="9" width="7"/>
-    <col customWidth="1" max="10" min="10" width="7"/>
-    <col customWidth="1" max="11" min="11" width="7"/>
-    <col customWidth="1" max="12" min="12" width="7"/>
-    <col customWidth="1" max="13" min="13" width="7"/>
-    <col customWidth="1" max="14" min="14" width="7"/>
-    <col customWidth="1" max="15" min="15" width="7"/>
-    <col customWidth="1" max="16" min="16" width="7"/>
-    <col customWidth="1" max="17" min="17" width="7"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="B2" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Max pooling: Downsamples by taking maximum in each region. Provides translation invariance and reduces computation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="16" t="inlineStr">
+        <is>
+          <t>MaxPool: ReLU (6×6) → Pool (3×3)</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" s="12" t="n"/>
+      <c r="P2" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>INPUT (ReLU Output)</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Pool: 2×2, Stride: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="18" t="n">
         <v>0</v>
       </c>
@@ -4186,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6">
       <c r="B6" s="18" t="n">
         <v>0</v>
       </c>
@@ -4206,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7">
       <c r="B7" s="21" t="n">
         <v>0</v>
       </c>
@@ -4226,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="B8" s="21" t="n">
         <v>0</v>
       </c>
@@ -4246,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9">
       <c r="B9" s="24" t="n">
         <v>0.63</v>
       </c>
@@ -4266,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10">
       <c r="B10" s="24" t="n">
         <v>0</v>
       </c>
@@ -4286,17 +4579,21 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    <row r="13">
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>OUTPUT (Pool 3×3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="18" t="n">
         <v>8.16</v>
       </c>
@@ -4307,7 +4604,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17">
       <c r="B17" s="21" t="n">
         <v>7.74</v>
       </c>
@@ -4318,7 +4615,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18">
       <c r="B18" s="24" t="n">
         <v>7.57</v>
       </c>
@@ -4330,10 +4627,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:P2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4343,50 +4641,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:N11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
-    <col customWidth="1" max="2" min="2" width="7"/>
-    <col customWidth="1" max="3" min="3" width="7"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="7"/>
-    <col customWidth="1" max="8" min="8" width="7"/>
-    <col customWidth="1" max="9" min="9" width="7"/>
-    <col customWidth="1" max="10" min="10" width="7"/>
-    <col customWidth="1" max="11" min="11" width="7"/>
-    <col customWidth="1" max="12" min="12" width="7"/>
-    <col customWidth="1" max="13" min="13" width="7"/>
-    <col customWidth="1" max="14" min="14" width="7"/>
-    <col customWidth="1" max="15" min="15" width="7"/>
-    <col customWidth="1" max="16" min="16" width="7"/>
-    <col customWidth="1" max="17" min="17" width="7"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
-      <c r="B2" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Fully connected layer: Flattens feature maps and computes final classification scores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>FC: Pool (3×3) → Flatten (9) → FC → Sigmoid → Loss</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" s="12" t="n"/>
+      <c r="P2" s="12" t="n"/>
+      <c r="Q2" s="12" t="n"/>
+      <c r="R2" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>INPUT (Pool)</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>→ Flatten →</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>Vector (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="18" t="n">
         <v>8.16</v>
       </c>
@@ -4412,7 +4741,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6">
       <c r="B6" s="18" t="n">
         <v>7.74</v>
       </c>
@@ -4435,7 +4764,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="B7" s="18" t="n">
         <v>7.57</v>
       </c>
@@ -4446,26 +4775,33 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="11" t="s">
-        <v>69</v>
+    <row r="9">
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>z = Σ(w×x) + b = 4.2656</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>y = σ(z) = 0.9862</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>Loss = 0.0139</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:R2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4475,39 +4811,1053 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:G25"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
-    <col customWidth="1" max="2" min="2" width="7"/>
-    <col customWidth="1" max="3" min="3" width="7"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="7"/>
-    <col customWidth="1" max="8" min="8" width="7"/>
-    <col customWidth="1" max="9" min="9" width="7"/>
-    <col customWidth="1" max="10" min="10" width="7"/>
-    <col customWidth="1" max="11" min="11" width="7"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] CNN backpropagation: Gradients flow back through FC, unpooling (to max positions), ReLU mask, and conv (kernel gradients).</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>Backward Propagation: CNN Gradient Computation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>Learning Rate: eta = 0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="30" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; 1. Output Layer Gradient (BCE + Sigmoid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>y_pred = 0.9862, y_true = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="31" t="inlineStr">
+        <is>
+          <t>For BCE + Sigmoid: dL/dz = y_pred - y_true</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dL/dz = 0.9862 - 1 = -0.0138</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="30" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; 2. FC Layer Gradients (dL/dW = dL/dz * x)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="29" t="inlineStr">
+        <is>
+          <t>Flattened Pool Input (x):</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="29" t="inlineStr">
+        <is>
+          <t>W_fc</t>
+        </is>
+      </c>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="H18" s="29" t="inlineStr">
+        <is>
+          <t>Gradient</t>
+        </is>
+      </c>
+      <c r="K18" s="29" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>W[0]</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.08409999999999999</v>
+      </c>
+      <c r="H19" s="32" t="n">
+        <v>-0.1126</v>
+      </c>
+      <c r="K19" s="33" t="n">
+        <v>0.0852</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>W[1]</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.08409999999999999</v>
+      </c>
+      <c r="H20" s="32" t="n">
+        <v>-0.1115</v>
+      </c>
+      <c r="K20" s="33" t="n">
+        <v>0.0852</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>W[2]</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.08409999999999999</v>
+      </c>
+      <c r="H21" s="32" t="n">
+        <v>-0.0784</v>
+      </c>
+      <c r="K21" s="33" t="n">
+        <v>0.0849</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>W[3]</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.08409999999999999</v>
+      </c>
+      <c r="H22" s="32" t="n">
+        <v>-0.1068</v>
+      </c>
+      <c r="K22" s="33" t="n">
+        <v>0.0852</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>W[4]</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.08409999999999999</v>
+      </c>
+      <c r="H23" s="32" t="n">
+        <v>-0.1045</v>
+      </c>
+      <c r="K23" s="33" t="n">
+        <v>0.0851</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>W[5]</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="H24" s="32" t="n">
+        <v>-0.0713</v>
+      </c>
+      <c r="K24" s="33" t="n">
+        <v>0.0428</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>W[6]</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="H25" s="32" t="n">
+        <v>-0.1045</v>
+      </c>
+      <c r="K25" s="33" t="n">
+        <v>0.0431</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>W[7]</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="H26" s="32" t="n">
+        <v>-0.0856</v>
+      </c>
+      <c r="K26" s="33" t="n">
+        <v>0.0429</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>W[8]</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="H27" s="32" t="n">
+        <v>-0.0781</v>
+      </c>
+      <c r="K27" s="33" t="n">
+        <v>0.0428</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>b_fc</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="32" t="n">
+        <v>-0.0138</v>
+      </c>
+      <c r="K29" s="33" t="n">
+        <v>0.1001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="30" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; 3. Gradient to Pool Layer (dL/dPool = dL/dz * W_fc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>dL/dPool (3x3):</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="C35" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="D35" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="C36" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="D36" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="C37" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="D37" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="30" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; 4. MaxPool Backward (Gradient routing to max positions)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MaxPool mask: gradient flows only to max positions in each 2x2 region</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>dL/dReLU (6x6):</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="D46" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="D47" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="D49" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="30" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; 5. ReLU Backward (dL/dConv = dL/dReLU * ReLU'(z))</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="31" t="inlineStr">
+        <is>
+          <t>ReLU'(z) = 1 if z &gt; 0, else 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="29" t="inlineStr">
+        <is>
+          <t>dL/dConv (6x6):</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="D59" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="D60" s="32" t="n">
+        <v>-0.001161</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="D62" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="32" t="n">
+        <v>-0.00058</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="30" t="inlineStr">
+        <is>
+          <t>&gt;&gt;&gt; 6. Convolution Backward (Kernel Gradients)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="31" t="inlineStr">
+        <is>
+          <t>dL/dK = conv(padded_input, dL/dConv)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="29" t="inlineStr">
+        <is>
+          <t>K_R (Original)</t>
+        </is>
+      </c>
+      <c r="G70" s="29" t="inlineStr">
+        <is>
+          <t>dL/dK_R</t>
+        </is>
+      </c>
+      <c r="L70" s="29" t="inlineStr">
+        <is>
+          <t>K_R (Updated)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="32" t="n">
+        <v>-0.00654</v>
+      </c>
+      <c r="H71" s="32" t="n">
+        <v>6.4e-05</v>
+      </c>
+      <c r="I71" s="32" t="n">
+        <v>0.005739</v>
+      </c>
+      <c r="L71" s="33" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="M71" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="33" t="n">
+        <v>-1.0001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G72" s="32" t="n">
+        <v>-0.003853</v>
+      </c>
+      <c r="H72" s="32" t="n">
+        <v>0.002153</v>
+      </c>
+      <c r="I72" s="32" t="n">
+        <v>0.007422</v>
+      </c>
+      <c r="L72" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="33" t="n">
+        <v>-2.0001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="32" t="n">
+        <v>-0.002408</v>
+      </c>
+      <c r="H73" s="32" t="n">
+        <v>0.003064</v>
+      </c>
+      <c r="I73" s="32" t="n">
+        <v>0.007631</v>
+      </c>
+      <c r="L73" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="33" t="n">
+        <v>-1.0001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="29" t="inlineStr">
+        <is>
+          <t>K_G (Original)</t>
+        </is>
+      </c>
+      <c r="G75" s="29" t="inlineStr">
+        <is>
+          <t>dL/dK_G</t>
+        </is>
+      </c>
+      <c r="L75" s="29" t="inlineStr">
+        <is>
+          <t>K_G (Updated)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="32" t="n">
+        <v>0.000377</v>
+      </c>
+      <c r="H76" s="32" t="n">
+        <v>-0.002478</v>
+      </c>
+      <c r="I76" s="32" t="n">
+        <v>-0.005321</v>
+      </c>
+      <c r="L76" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" s="33" t="n">
+        <v>1.0001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="32" t="n">
+        <v>0.001822</v>
+      </c>
+      <c r="H77" s="32" t="n">
+        <v>-0.001033</v>
+      </c>
+      <c r="I77" s="32" t="n">
+        <v>-0.003894</v>
+      </c>
+      <c r="L77" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="32" t="n">
+        <v>0.00307</v>
+      </c>
+      <c r="H78" s="32" t="n">
+        <v>0.000418</v>
+      </c>
+      <c r="I78" s="32" t="n">
+        <v>-0.002234</v>
+      </c>
+      <c r="L78" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N78" s="33" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="29" t="inlineStr">
+        <is>
+          <t>K_B (Original)</t>
+        </is>
+      </c>
+      <c r="G80" s="29" t="inlineStr">
+        <is>
+          <t>dL/dK_B</t>
+        </is>
+      </c>
+      <c r="L80" s="29" t="inlineStr">
+        <is>
+          <t>K_B (Updated)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="32" t="n">
+        <v>0.001764</v>
+      </c>
+      <c r="H81" s="32" t="n">
+        <v>-0.001776</v>
+      </c>
+      <c r="I81" s="32" t="n">
+        <v>-0.005316</v>
+      </c>
+      <c r="L81" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N81" s="33" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="32" t="n">
+        <v>0.000342</v>
+      </c>
+      <c r="H82" s="32" t="n">
+        <v>-0.003192</v>
+      </c>
+      <c r="I82" s="32" t="n">
+        <v>-0.006732</v>
+      </c>
+      <c r="L82" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" s="33" t="n">
+        <v>-0.9999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="32" t="n">
+        <v>-0.00025</v>
+      </c>
+      <c r="H83" s="32" t="n">
+        <v>-0.003534</v>
+      </c>
+      <c r="I83" s="32" t="n">
+        <v>-0.006819</v>
+      </c>
+      <c r="L83" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N83" s="33" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="29" t="inlineStr">
+        <is>
+          <t>Conv Bias:</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Gradient</t>
+        </is>
+      </c>
+      <c r="H87" s="32" t="n">
+        <v>-0.008123999999999999</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+      <c r="L87" s="33" t="n">
+        <v>8.1e-05</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Reference solutions for self-checking your calculations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="B2" s="1">
         <f>== Answer Key ===</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Conv (6×6):</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="15" t="n">
         <v>-5.02</v>
       </c>
@@ -4527,7 +5877,7 @@
         <v>-4.73</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="B6" s="15" t="n">
         <v>-4</v>
       </c>
@@ -4547,7 +5897,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="B7" s="15" t="n">
         <v>-2.46</v>
       </c>
@@ -4567,7 +5917,7 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="B8" s="15" t="n">
         <v>-0.91</v>
       </c>
@@ -4587,7 +5937,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="B9" s="15" t="n">
         <v>0.63</v>
       </c>
@@ -4607,7 +5957,7 @@
         <v>-3.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="B10" s="15" t="n">
         <v>-2.12</v>
       </c>
@@ -4627,12 +5977,14 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ReLU (6×6):</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" s="18" t="n">
         <v>0</v>
       </c>
@@ -4652,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="B14" s="18" t="n">
         <v>0</v>
       </c>
@@ -4672,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="B15" s="18" t="n">
         <v>0</v>
       </c>
@@ -4692,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="B16" s="18" t="n">
         <v>0</v>
       </c>
@@ -4712,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="B17" s="18" t="n">
         <v>0.63</v>
       </c>
@@ -4732,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18">
       <c r="B18" s="18" t="n">
         <v>0</v>
       </c>
@@ -4752,12 +6104,14 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    <row r="20">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Pool (3×3):</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="17" t="n">
         <v>8.16</v>
       </c>
@@ -4768,7 +6122,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22">
       <c r="B22" s="17" t="n">
         <v>7.74</v>
       </c>
@@ -4779,7 +6133,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23">
       <c r="B23" s="17" t="n">
         <v>7.57</v>
       </c>
@@ -4790,12 +6144,17 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="2" t="s">
-        <v>73</v>
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>z=4.2656, y=0.9862, Loss=0.0139</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>